--- a/utility/data/HPSAdata/Hpsa_Find_Export (42).xlsx
+++ b/utility/data/HPSAdata/Hpsa_Find_Export (42).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsiu8\HPSA-Data\utility\data\HPSA data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsiu8\HPSA-Data\utility\data\HPSAdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A1432D-A7ED-475D-B3AD-7DEE934AEF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0790D1-6FEE-4AF9-9AE7-98113597C647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="11928" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HPSA Find" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17105" uniqueCount="5442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17106" uniqueCount="5442">
   <si>
     <t>data.HRSA.gov – HPSA Find</t>
   </si>
@@ -16543,22 +16543,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -16877,8 +16877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L2332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2307" workbookViewId="0">
-      <selection activeCell="K2320" sqref="K2320"/>
+    <sheetView tabSelected="1" topLeftCell="A2318" workbookViewId="0">
+      <selection activeCell="E2332" sqref="E2332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -72854,6 +72854,9 @@
       </c>
     </row>
     <row r="2332" spans="1:12" ht="15" thickTop="1">
+      <c r="E2332" t="s">
+        <v>33</v>
+      </c>
       <c r="G2332" t="s">
         <v>46</v>
       </c>
